--- a/iceberg/results/iceBook.xlsx
+++ b/iceberg/results/iceBook.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="7">
   <si>
     <t>Denoising</t>
   </si>
@@ -38,10 +38,13 @@
     <t>test</t>
   </si>
   <si>
-    <t>Val_Accuracy</t>
+    <t>Train/Test</t>
   </si>
   <si>
-    <t>Train/Test</t>
+    <t>Including</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -404,7 +407,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,13 +415,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -431,8 +443,17 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>0</v>
       </c>
@@ -445,8 +466,17 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>5</v>
       </c>
@@ -459,8 +489,17 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F4">
+        <v>250</v>
+      </c>
+      <c r="G4">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>5</v>
       </c>
@@ -473,8 +512,17 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F5">
+        <v>250</v>
+      </c>
+      <c r="G5">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -487,8 +535,17 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F6">
+        <v>500</v>
+      </c>
+      <c r="G6">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>10</v>
       </c>
@@ -501,8 +558,17 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7">
+        <v>0.8891</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>10</v>
       </c>
@@ -510,13 +576,22 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.51200000000000001</v>
+        <v>0.96960000000000002</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>0.47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>10</v>
       </c>
@@ -529,8 +604,17 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>0</v>
       </c>
@@ -543,8 +627,17 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F10">
+        <v>2000</v>
+      </c>
+      <c r="G10">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>0</v>
       </c>
@@ -557,8 +650,17 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F11">
+        <v>2000</v>
+      </c>
+      <c r="G11">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>5</v>
       </c>
@@ -571,8 +673,17 @@
       <c r="D12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F12">
+        <v>4000</v>
+      </c>
+      <c r="G12">
+        <v>0.1986</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>5</v>
       </c>
@@ -585,8 +696,17 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F13">
+        <v>4000</v>
+      </c>
+      <c r="G13">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>5</v>
       </c>
@@ -599,8 +719,17 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F14">
+        <v>8000</v>
+      </c>
+      <c r="G14">
+        <v>0.1149</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>10</v>
       </c>
@@ -613,8 +742,17 @@
       <c r="D15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F15">
+        <v>8000</v>
+      </c>
+      <c r="G15">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>10</v>
       </c>
@@ -622,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.39900000000000002</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -639,6 +777,398 @@
         <v>0.8841</v>
       </c>
       <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0.8891</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0.94879999999999998</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0.8841</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.9325</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0.9667</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0.88080000000000003</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0.8659</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A45">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="D45" t="s">
         <v>3</v>
       </c>
     </row>
